--- a/Jogos_do_Dia/2023-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.25</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.55</v>
-      </c>
       <c r="H2" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="N2" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -745,10 +745,10 @@
         <v>1.84</v>
       </c>
       <c r="G3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4.05</v>
       </c>
       <c r="I3" t="n">
         <v>1.01</v>
@@ -763,10 +763,10 @@
         <v>3.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N3" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.33</v>
+        <v>1.89</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.89</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="G5" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="N5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O5" t="n">
         <v>1.46</v>
@@ -1034,7 +1034,7 @@
         <v>2.35</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE5" t="n">
         <v>1.24</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.09</v>
+        <v>2.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="N12" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.83</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2083,10 +2083,10 @@
         <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="N16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="G28" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
         <v>1.05</v>
@@ -3513,10 +3513,10 @@
         <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
@@ -3564,7 +3564,7 @@
         <v>2.05</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE28" t="n">
         <v>1.24</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="G29" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I29" t="n">
         <v>1.02</v>
@@ -3623,10 +3623,10 @@
         <v>4.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="N29" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="O29" t="n">
         <v>1.3</v>
@@ -3784,7 +3784,7 @@
         <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE30" t="n">
         <v>1.29</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.26</v>
+        <v>3.5</v>
       </c>
       <c r="G31" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="I31" t="n">
         <v>1.03</v>
@@ -3843,10 +3843,10 @@
         <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.79</v>
+        <v>1.66</v>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
-        <v>4.45</v>
+        <v>5.2</v>
       </c>
       <c r="I32" t="n">
         <v>1.09</v>
@@ -4016,7 +4016,7 @@
         <v>3.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33">
@@ -4063,10 +4063,10 @@
         <v>2.23</v>
       </c>
       <c r="M33" t="n">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="N33" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.65</v>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="F36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G36" t="n">
         <v>3.15</v>
-      </c>
-      <c r="G36" t="n">
-        <v>3.25</v>
       </c>
       <c r="H36" t="n">
         <v>2.2</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4503,10 +4503,10 @@
         <v>3.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="N37" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -4774,7 +4774,7 @@
         <v>2.95</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE39" t="n">
         <v>1.29</v>
@@ -4812,10 +4812,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H40" t="n">
         <v>3.3</v>
@@ -4833,10 +4833,10 @@
         <v>3.45</v>
       </c>
       <c r="M40" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N40" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="O40" t="n">
         <v>1.36</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="H48" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,10 +5713,10 @@
         <v>3.3</v>
       </c>
       <c r="M48" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N48" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -5776,7 +5776,7 @@
         <v>2.93</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="49">
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I50" t="n">
         <v>1.05</v>
@@ -5933,10 +5933,10 @@
         <v>3.2</v>
       </c>
       <c r="M50" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N50" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="O50" t="n">
         <v>1.39</v>
@@ -5984,7 +5984,7 @@
         <v>2.55</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE50" t="n">
         <v>1.24</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="G51" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="H51" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="I51" t="n">
         <v>1.07</v>
@@ -6106,7 +6106,7 @@
         <v>3.42</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="52">

--- a/Jogos_do_Dia/2023-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.43</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N2" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -680,10 +680,10 @@
         <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="X2" t="n">
         <v>1.4</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G3" t="n">
-        <v>3.45</v>
+        <v>3.92</v>
       </c>
       <c r="H3" t="n">
-        <v>3.85</v>
+        <v>4.17</v>
       </c>
       <c r="I3" t="n">
         <v>1.01</v>
@@ -763,10 +763,10 @@
         <v>3.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N3" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="O3" t="n">
         <v>1.32</v>
@@ -790,7 +790,7 @@
         <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.26</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>2.81</v>
       </c>
       <c r="I4" t="n">
         <v>1.02</v>
@@ -873,10 +873,10 @@
         <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N4" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
@@ -900,10 +900,10 @@
         <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="W4" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>1.67</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
       <c r="N5" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O5" t="n">
         <v>1.46</v>
@@ -1010,10 +1010,10 @@
         <v>1.59</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="X5" t="n">
         <v>2.01</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.64</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="I6" t="n">
         <v>1.02</v>
@@ -1093,10 +1093,10 @@
         <v>4.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N6" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1120,10 +1120,10 @@
         <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="W6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
         <v>1.59</v>
@@ -1230,10 +1230,10 @@
         <v>1.45</v>
       </c>
       <c r="V7" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="X7" t="n">
         <v>1.53</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>3.51</v>
       </c>
       <c r="G8" t="n">
-        <v>3.65</v>
+        <v>3.41</v>
       </c>
       <c r="H8" t="n">
-        <v>2.25</v>
+        <v>1.92</v>
       </c>
       <c r="I8" t="n">
         <v>1.03</v>
@@ -1313,10 +1313,10 @@
         <v>3.8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="N8" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1340,10 +1340,10 @@
         <v>1.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X8" t="n">
         <v>1.5</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>5.86</v>
       </c>
       <c r="I9" t="n">
         <v>1.01</v>
@@ -1423,10 +1423,10 @@
         <v>4.7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N9" t="n">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1450,10 +1450,10 @@
         <v>2.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X9" t="n">
         <v>1.83</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.58</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>3.99</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="N10" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>3.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,10 +1643,10 @@
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="N11" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>2.43</v>
+        <v>2.32</v>
       </c>
       <c r="N13" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="O13" t="n">
         <v>1.55</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.65</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.85</v>
+        <v>3.47</v>
       </c>
       <c r="I14" t="n">
         <v>1.13</v>
@@ -1967,16 +1967,16 @@
         <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M14" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="N14" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O14" t="n">
         <v>1.57</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>2.79</v>
       </c>
       <c r="I15" t="n">
         <v>1.02</v>
@@ -2083,10 +2083,10 @@
         <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="N15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="H16" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="I16" t="n">
         <v>1.08</v>
@@ -2193,10 +2193,10 @@
         <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>2.23</v>
+        <v>2.39</v>
       </c>
       <c r="N16" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="O16" t="n">
         <v>1.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.15</v>
+        <v>5.64</v>
       </c>
       <c r="G17" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="I17" t="n">
         <v>1.01</v>
@@ -2303,10 +2303,10 @@
         <v>5.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="N17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.09</v>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="H18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I18" t="n">
         <v>1.02</v>
@@ -2413,10 +2413,10 @@
         <v>4.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="N18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.28</v>
       </c>
       <c r="H20" t="n">
-        <v>2.85</v>
+        <v>2.66</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2633,10 +2633,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="N20" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.36</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
         <v>1.04</v>
@@ -2743,7 +2743,7 @@
         <v>3.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="N21" t="n">
         <v>1.95</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.16</v>
       </c>
       <c r="H22" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="I22" t="n">
         <v>1.06</v>
@@ -2853,10 +2853,10 @@
         <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>3.65</v>
+        <v>3.46</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="I23" t="n">
         <v>1.03</v>
@@ -2963,7 +2963,7 @@
         <v>3.8</v>
       </c>
       <c r="M23" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="N23" t="n">
         <v>1.96</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="G24" t="n">
-        <v>3.75</v>
+        <v>3.89</v>
       </c>
       <c r="H24" t="n">
-        <v>5.3</v>
+        <v>5.72</v>
       </c>
       <c r="I24" t="n">
         <v>1.05</v>
@@ -3073,10 +3073,10 @@
         <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="N24" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="I25" t="n">
         <v>1.06</v>
@@ -3183,10 +3183,10 @@
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G26" t="n">
-        <v>4.25</v>
+        <v>4.43</v>
       </c>
       <c r="H26" t="n">
-        <v>5.25</v>
+        <v>5.57</v>
       </c>
       <c r="I26" t="n">
         <v>1.04</v>
@@ -3293,7 +3293,7 @@
         <v>3.86</v>
       </c>
       <c r="M26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N26" t="n">
         <v>2.08</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>4.48</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>7.01</v>
       </c>
       <c r="I27" t="n">
         <v>1.02</v>
@@ -3403,10 +3403,10 @@
         <v>3.26</v>
       </c>
       <c r="M27" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="N27" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="G28" t="n">
-        <v>3.35</v>
+        <v>3.01</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
         <v>1.05</v>
@@ -3513,10 +3513,10 @@
         <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="N28" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="O28" t="n">
         <v>1.41</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>4.84</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>8.92</v>
       </c>
       <c r="I29" t="n">
         <v>1.02</v>
@@ -3623,10 +3623,10 @@
         <v>4.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="N29" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="O29" t="n">
         <v>1.3</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="G30" t="n">
-        <v>5.1</v>
+        <v>4.66</v>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>7.47</v>
       </c>
       <c r="I30" t="n">
         <v>1.03</v>
@@ -3733,10 +3733,10 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="N30" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="O30" t="n">
         <v>1.25</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>3.03</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.51</v>
       </c>
       <c r="H31" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I31" t="n">
         <v>1.03</v>
@@ -3843,10 +3843,10 @@
         <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N31" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>3.01</v>
       </c>
       <c r="H32" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I32" t="n">
         <v>1.09</v>
@@ -3953,10 +3953,10 @@
         <v>2.65</v>
       </c>
       <c r="M32" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O32" t="n">
         <v>1.52</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="G33" t="n">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="H33" t="n">
-        <v>2.65</v>
+        <v>3.14</v>
       </c>
       <c r="I33" t="n">
         <v>1.13</v>
@@ -4057,16 +4057,16 @@
         <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="L33" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="M33" t="n">
         <v>2.85</v>
       </c>
       <c r="N33" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="O33" t="n">
         <v>1.65</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2.88</v>
+        <v>3.32</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.28</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4167,16 +4167,16 @@
         <v>6.5</v>
       </c>
       <c r="K34" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="L34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M34" t="n">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="N34" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="O34" t="n">
         <v>1.52</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>4.95</v>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="H35" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="I35" t="n">
         <v>1.05</v>
@@ -4283,10 +4283,10 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O35" t="n">
         <v>1.4</v>
@@ -4372,13 +4372,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="I36" t="n">
         <v>1.05</v>
@@ -4387,16 +4387,16 @@
         <v>7.5</v>
       </c>
       <c r="K36" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="L36" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="M36" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="N36" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="O36" t="n">
         <v>1.5</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="H37" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4503,10 +4503,10 @@
         <v>3.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="N37" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="G38" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="H38" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="I38" t="n">
         <v>1.07</v>
@@ -4613,10 +4613,10 @@
         <v>3.1</v>
       </c>
       <c r="M38" t="n">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="N38" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.87</v>
       </c>
       <c r="H39" t="n">
-        <v>4.2</v>
+        <v>4.43</v>
       </c>
       <c r="I39" t="n">
         <v>1.05</v>
@@ -4723,10 +4723,10 @@
         <v>3.5</v>
       </c>
       <c r="M39" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="N39" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O39" t="n">
         <v>1.36</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
         <v>1.05</v>
@@ -4833,7 +4833,7 @@
         <v>3.45</v>
       </c>
       <c r="M40" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N40" t="n">
         <v>1.77</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>4.67</v>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>3.82</v>
       </c>
       <c r="H41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="I41" t="n">
         <v>1.01</v>
@@ -4943,10 +4943,10 @@
         <v>4.7</v>
       </c>
       <c r="M41" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="N41" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="G42" t="n">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="H42" t="n">
-        <v>2.75</v>
+        <v>2.61</v>
       </c>
       <c r="I42" t="n">
         <v>1.04</v>
@@ -5053,10 +5053,10 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="N42" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>3.78</v>
       </c>
       <c r="G43" t="n">
-        <v>4.1</v>
+        <v>3.59</v>
       </c>
       <c r="H43" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="I43" t="n">
         <v>1.02</v>
@@ -5163,10 +5163,10 @@
         <v>4.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="N43" t="n">
-        <v>2.28</v>
+        <v>2.07</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="G44" t="n">
-        <v>4.9</v>
+        <v>4.17</v>
       </c>
       <c r="H44" t="n">
-        <v>7.5</v>
+        <v>6.06</v>
       </c>
       <c r="I44" t="n">
         <v>1.02</v>
@@ -5273,7 +5273,7 @@
         <v>4.3</v>
       </c>
       <c r="M44" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="N44" t="n">
         <v>2.08</v>
@@ -5362,13 +5362,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.4</v>
+        <v>2.81</v>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="H45" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="I45" t="n">
         <v>1.05</v>
@@ -5383,10 +5383,10 @@
         <v>3.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="N45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O45" t="n">
         <v>1.33</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="G46" t="n">
-        <v>4.6</v>
+        <v>4.02</v>
       </c>
       <c r="H46" t="n">
-        <v>6.75</v>
+        <v>4.8</v>
       </c>
       <c r="I46" t="n">
         <v>1.01</v>
@@ -5493,10 +5493,10 @@
         <v>4.7</v>
       </c>
       <c r="M46" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="N46" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="O46" t="n">
         <v>1.29</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="G47" t="n">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
         <v>1.03</v>
@@ -5603,10 +5603,10 @@
         <v>3.8</v>
       </c>
       <c r="M47" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="N47" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="O47" t="n">
         <v>1.38</v>
@@ -5695,10 +5695,10 @@
         <v>1.4</v>
       </c>
       <c r="G48" t="n">
-        <v>4.35</v>
+        <v>3.54</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>6.04</v>
       </c>
       <c r="I48" t="n">
         <v>1.05</v>
@@ -5713,7 +5713,7 @@
         <v>3.3</v>
       </c>
       <c r="M48" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="N48" t="n">
         <v>1.74</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>3.97</v>
       </c>
       <c r="H49" t="n">
-        <v>3.95</v>
+        <v>4.57</v>
       </c>
       <c r="I49" t="n">
         <v>1.03</v>
@@ -5823,10 +5823,10 @@
         <v>4.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="N49" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O49" t="n">
         <v>1.31</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="G50" t="n">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="H50" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I50" t="n">
         <v>1.05</v>
@@ -5933,7 +5933,7 @@
         <v>3.2</v>
       </c>
       <c r="M50" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="N50" t="n">
         <v>1.84</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6.25</v>
+        <v>6.36</v>
       </c>
       <c r="G51" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="H51" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="I51" t="n">
         <v>1.07</v>
@@ -6043,10 +6043,10 @@
         <v>2.7</v>
       </c>
       <c r="M51" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="N51" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O51" t="n">
         <v>1.5</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="G52" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="H52" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I52" t="n">
         <v>1.01</v>
@@ -6153,10 +6153,10 @@
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="N52" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="O52" t="n">
         <v>1.29</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.05</v>
+        <v>1.76</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="H53" t="n">
-        <v>3.55</v>
+        <v>4.06</v>
       </c>
       <c r="I53" t="n">
         <v>1.05</v>
@@ -6263,10 +6263,10 @@
         <v>3.4</v>
       </c>
       <c r="M53" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="N53" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="O53" t="n">
         <v>1.44</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="G54" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H54" t="n">
-        <v>2.45</v>
+        <v>2.28</v>
       </c>
       <c r="I54" t="n">
         <v>1.04</v>
@@ -6373,10 +6373,10 @@
         <v>3.8</v>
       </c>
       <c r="M54" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N54" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O54" t="n">
         <v>1.33</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="G55" t="n">
-        <v>6.75</v>
+        <v>7.48</v>
       </c>
       <c r="H55" t="n">
-        <v>14</v>
+        <v>15.79</v>
       </c>
       <c r="I55" t="n">
         <v>1.02</v>
@@ -6483,10 +6483,10 @@
         <v>4.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="N55" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="O55" t="n">
         <v>1.27</v>
